--- a/Kế hoạch thực hiện (bản excel).xlsx
+++ b/Kế hoạch thực hiện (bản excel).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -73,40 +73,40 @@
     <t>Bảo Nguyễn Lê Gia Tâm Tăng Thiện</t>
   </si>
   <si>
+    <t>Dataset cũ quá ít, không chất lượng, phải đổi chủ đề</t>
+  </si>
+  <si>
+    <t>Tìm hiểu lý thuyết của LLM, tìm model hợp lý để finetune</t>
+  </si>
+  <si>
+    <t>Tìm kiếm dataset cho LLM</t>
+  </si>
+  <si>
+    <t>Code + Fine-tune LoRA LLM + SD với dataset đã có</t>
+  </si>
+  <si>
+    <t>Finetune theo phương pháp DPO cho LLM để tăng điểm eval</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>Sau khi tìm hiểu và xem xét thì phương pháp DPO khó khả thi với Google Colab free vì tốn nhiều thời gian, cần nhiều điện toán</t>
+  </si>
+  <si>
+    <t>PPT cho giữa kì</t>
+  </si>
+  <si>
+    <t>Finetune LLM</t>
+  </si>
+  <si>
+    <t>Finetune SD</t>
+  </si>
+  <si>
+    <t>Viết báo cáo cuối kì</t>
+  </si>
+  <si>
     <t>In progress</t>
-  </si>
-  <si>
-    <t>Dataset cũ quá ít, không chất lượng, phải đổi chủ đề</t>
-  </si>
-  <si>
-    <t>Tìm hiểu lý thuyết của LLM, tìm model hợp lý để finetune</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>Tìm kiếm dataset cho LLM</t>
-  </si>
-  <si>
-    <t>Code + Fine-tune LoRA LLM + SD với dataset đã có</t>
-  </si>
-  <si>
-    <t>Finetune theo phương pháp DPO cho LLM để tăng điểm eval</t>
-  </si>
-  <si>
-    <t>Abandoned</t>
-  </si>
-  <si>
-    <t>Sau khi tìm hiểu và xem xét thì phương pháp DPO khó khả thi với Google Colab free vì tốn nhiều thời gian, cần nhiều điện toán</t>
-  </si>
-  <si>
-    <t>PPT cho giữa kì</t>
-  </si>
-  <si>
-    <t>Finetune LLM</t>
-  </si>
-  <si>
-    <t>Finetune SD</t>
   </si>
 </sst>
 </file>
@@ -116,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -151,6 +151,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,13 +399,13 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -815,7 +821,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12">
         <v>45600.0</v>
@@ -824,18 +830,18 @@
         <v>45607.0</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
         <v>45607.0</v>
@@ -847,16 +853,16 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D9" s="12">
-        <v>45612.0</v>
+        <v>45600.0</v>
       </c>
       <c r="E9" s="12">
         <v>45616.0</v>
@@ -865,13 +871,13 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
         <v>45617.0</v>
@@ -883,23 +889,23 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>19</v>
@@ -917,13 +923,13 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D13" s="12">
         <v>45617.0</v>
@@ -935,13 +941,13 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
         <v>45617.0</v>
@@ -952,9 +958,15 @@
       <c r="F14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="23"/>
@@ -983,10 +995,11 @@
     <hyperlink r:id="rId11" ref="B12"/>
     <hyperlink r:id="rId12" ref="B13"/>
     <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Kế hoạch thực hiện (bản excel).xlsx
+++ b/Kế hoạch thực hiện (bản excel).xlsx
@@ -467,7 +467,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9982200" cy="4171950"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
